--- a/medicine/Psychotrope/Dame-jeanne/Dame-jeanne.xlsx
+++ b/medicine/Psychotrope/Dame-jeanne/Dame-jeanne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une dame-jeanne est une grande bonbonne de verre généralement épais à la forme très arrondie et au goulot court. 
 La bonbonne est une grande et grosse bouteille servant à la fabrication, à la conservation, à l'affinage ou au transport :
@@ -488,11 +500,11 @@
 de produits alimentaire (huiles, vinaigres,...) ;
 de produits chimiques (acides, huiles).
 Aplati à la base, le corps en est ventru (très arrondi, en forme de goutte ou allongée), surmonté d'un goulot court mais relativement large. Elle est généralement en verre épais, parfois en grès. La fermeture est assurée par un bouchon de liège, éventuellement recouvert de tissu ou surmonté d'un barboteur (si la bonbonne accueille un moût en fermentation alcoolique). Pour en sécuriser le transport, elle est garnie d'une enveloppe d'osier ou de jonc tressé (appelée chemise ou clisse) munie ou non d'anses susceptibles d'en faciliter la manipulation, enveloppe qui peut éventuellement être doublée de mousse ou de paille ayant pour vocation d’amortir les chocs afin d'éviter le bris du verre. 
-Sa capacité s'étend de deux à plus de cinquante litres environ[1], et obéit à une nomenclature remontant à la fin du XVIIIe siècle et au début du XIXe siècle :
+Sa capacité s'étend de deux à plus de cinquante litres environ, et obéit à une nomenclature remontant à la fin du XVIIIe siècle et au début du XIXe siècle :
 La bonbonne proprement dite contient de deux à vingt litres ;
-La dame-jeanne peut contenir environ trente à cinquante litres[2] ;
-La tourille ou tourie aura une capacité de 50 à 60 litres[3],[2].
-Dames-jeannes et touries sont devenues des objets de décoration (lampe, vase) très prisés[4], voire des mini-stations d'observation du métabolisme végétal[5].
+La dame-jeanne peut contenir environ trente à cinquante litres ;
+La tourille ou tourie aura une capacité de 50 à 60 litres,.
+Dames-jeannes et touries sont devenues des objets de décoration (lampe, vase) très prisés, voire des mini-stations d'observation du métabolisme végétal.
 </t>
         </is>
       </c>
@@ -521,9 +533,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le berceau culturel de ces bouteilles est la ville de Damghan (en persan : دامغان) en Perse, dont les verriers fabriquaient des objets en verre très recherchés, dont de telles bouteilles. Bien placée sur la route de la soie, entre le Levant et l'Asie, l'âge d'or de la ville se situe au Moyen Âge. C'est ainsi que ces bouteilles parviennent en Europe sous des noms liés à cette ville. Les Turcs les appellent damacana, les arabes damagana. En occitan, le nom devient damajano[6], en catalan damajana, en espagnol damajuana, en français, en 1694, dame-jane chez Corneille[7]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le berceau culturel de ces bouteilles est la ville de Damghan (en persan : دامغان) en Perse, dont les verriers fabriquaient des objets en verre très recherchés, dont de telles bouteilles. Bien placée sur la route de la soie, entre le Levant et l'Asie, l'âge d'or de la ville se situe au Moyen Âge. C'est ainsi que ces bouteilles parviennent en Europe sous des noms liés à cette ville. Les Turcs les appellent damacana, les arabes damagana. En occitan, le nom devient damajano, en catalan damajana, en espagnol damajuana, en français, en 1694, dame-jane chez Corneille. 
 Dès le XVIIIe siècle, dame jeanne devient par dérision, une allusion à un embonpoint comparable à la forme ventrue de la bouteille, voire à une certaine lourdeur d'esprit.
 </t>
         </is>
@@ -553,7 +567,9 @@
           <t>Légende</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La légende dit que, chassée de son royaume de Naples, la Reine Jeanne vint se réfugier en 1347 dans son comté de Provence en passant par la route de Grasse à Draguignan. Surprise par un violent orage, on lui recommanda de chercher refuge en la demeure d'un gentilhomme verrier, au hameau de « Saint Paul la Galline Grasse ».
 Après y avoir passé la nuit, la reine désira visiter les ateliers dans lesquels son hôte fabriquait ses flacons. Un peu troublé, le verrier souffla si fort dans le mors de sa canne, que la bouteille en cours devint énorme, faisant l'admiration de tous de par sa contenance de plusieurs dizaines de litres. Il décida d'en lancer la commercialisation et baptisa le modèle "Reine Jeanne", en l'honneur de son inspiratrice. La souveraine aurait alors suggéré de préférer le nom de « Dame Jeanne ». Pour protéger sa bouteille, le verrier l'habilla d'une clisse en osier.
